--- a/data/course/course_prerequisites.xlsx
+++ b/data/course/course_prerequisites.xlsx
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-208</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>36-208</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
@@ -513,7 +513,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -537,7 +537,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -561,7 +561,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -573,7 +573,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09-219</t>
+          <t>09-217</t>
         </is>
       </c>
     </row>
@@ -585,7 +585,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>09-217</t>
+          <t>09-219</t>
         </is>
       </c>
     </row>
@@ -597,7 +597,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -669,7 +669,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>21-373</t>
         </is>
       </c>
     </row>
@@ -693,7 +693,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>21-373</t>
+          <t>15-251</t>
         </is>
       </c>
     </row>
@@ -705,7 +705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>73-240</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>73-240</t>
         </is>
       </c>
     </row>
@@ -765,7 +765,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -825,7 +825,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>70-257</t>
+          <t>21-257</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>21-257</t>
+          <t>21-292</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>21-292</t>
+          <t>70-257</t>
         </is>
       </c>
     </row>
@@ -873,7 +873,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -885,7 +885,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>73-160</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -909,7 +909,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>73-160</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -945,7 +945,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>85-241</t>
+          <t>85-102</t>
         </is>
       </c>
     </row>
@@ -957,7 +957,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>85-221</t>
+          <t>85-211</t>
         </is>
       </c>
     </row>
@@ -969,7 +969,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>85-102</t>
+          <t>85-221</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-241</t>
         </is>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1029,7 +1029,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1053,7 +1053,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>03-220</t>
+          <t>03-221</t>
         </is>
       </c>
     </row>
@@ -1077,7 +1077,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>03-221</t>
+          <t>03-330</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>03-330</t>
+          <t>03-220</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1173,7 +1173,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1221,7 +1221,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1269,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>70-208</t>
         </is>
       </c>
     </row>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>36-208</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>36-208</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>21-370</t>
         </is>
       </c>
     </row>
@@ -1377,7 +1377,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>21-370</t>
+          <t>70-391</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1413,7 +1413,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1461,7 +1461,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1473,7 +1473,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1497,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1521,7 +1521,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1581,7 +1581,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1593,7 +1593,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>03-220</t>
+          <t>03-221</t>
         </is>
       </c>
     </row>
@@ -1641,7 +1641,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>03-221</t>
+          <t>03-330</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>03-330</t>
+          <t>03-220</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1749,7 +1749,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -1761,7 +1761,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>33-106</t>
+          <t>33-131</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>33-121</t>
+          <t>33-151</t>
         </is>
       </c>
     </row>
@@ -1833,7 +1833,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>33-131</t>
+          <t>33-111</t>
         </is>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>33-151</t>
+          <t>33-106</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>33-141</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>33-141</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>33-111</t>
+          <t>33-121</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -1917,7 +1917,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -1953,7 +1953,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>15-213</t>
+          <t>15-251</t>
         </is>
       </c>
     </row>
@@ -1965,7 +1965,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>15-213</t>
         </is>
       </c>
     </row>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>15-210</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>15-210</t>
+          <t>76-101</t>
         </is>
       </c>
     </row>
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2013,7 +2013,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2025,7 +2025,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2049,7 +2049,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2085,7 +2085,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2109,7 +2109,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2121,7 +2121,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2133,7 +2133,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2169,7 +2169,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2181,7 +2181,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>70-371</t>
         </is>
       </c>
     </row>
@@ -2193,7 +2193,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>70-122</t>
+          <t>70-381</t>
         </is>
       </c>
     </row>
@@ -2205,7 +2205,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>70-381</t>
+          <t>70-122</t>
         </is>
       </c>
     </row>
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>70-371</t>
+          <t>70-391</t>
         </is>
       </c>
     </row>
@@ -2241,7 +2241,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2253,7 +2253,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2301,7 +2301,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>15-210</t>
+          <t>67-272</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>67-272</t>
+          <t>15-210</t>
         </is>
       </c>
     </row>
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>06-221</t>
+          <t>09-107</t>
         </is>
       </c>
     </row>
@@ -2361,7 +2361,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>09-107</t>
+          <t>06-221</t>
         </is>
       </c>
     </row>
@@ -2397,7 +2397,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -2409,7 +2409,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>73-240</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -2421,7 +2421,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-240</t>
         </is>
       </c>
     </row>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -2445,7 +2445,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -2457,7 +2457,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>73-240</t>
+          <t>21-254</t>
         </is>
       </c>
     </row>
@@ -2481,7 +2481,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>73-265</t>
         </is>
       </c>
     </row>
@@ -2493,7 +2493,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -2505,7 +2505,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>73-265</t>
+          <t>73-240</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -2541,7 +2541,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -2577,7 +2577,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
     </row>
@@ -2589,7 +2589,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-251</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2613,7 +2613,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2625,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2661,7 +2661,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2685,7 +2685,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2733,7 +2733,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>70-420</t>
+          <t>70-414</t>
         </is>
       </c>
     </row>
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>15-390</t>
+          <t>70-421</t>
         </is>
       </c>
     </row>
@@ -2769,7 +2769,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>70-414</t>
+          <t>70-420</t>
         </is>
       </c>
     </row>
@@ -2781,7 +2781,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>70-421</t>
+          <t>70-415</t>
         </is>
       </c>
     </row>
@@ -2793,7 +2793,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>70-415</t>
+          <t>15-390</t>
         </is>
       </c>
     </row>
@@ -2817,7 +2817,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>70-340</t>
         </is>
       </c>
     </row>
@@ -2829,7 +2829,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>70-340</t>
+          <t>76-270</t>
         </is>
       </c>
     </row>
@@ -2841,7 +2841,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2853,7 +2853,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2901,7 +2901,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -2913,7 +2913,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -2925,7 +2925,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -2949,7 +2949,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -2973,7 +2973,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -2997,7 +2997,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -3009,7 +3009,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -3069,7 +3069,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>70-428</t>
+          <t>70-424</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3081,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>70-428</t>
         </is>
       </c>
     </row>
@@ -3093,7 +3093,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>70-424</t>
+          <t>70-391</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -3177,7 +3177,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -3201,7 +3201,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -3237,7 +3237,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -3273,7 +3273,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>36-325</t>
+          <t>15-122</t>
         </is>
       </c>
     </row>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -3297,7 +3297,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-325</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>15-359</t>
+          <t>21-128</t>
         </is>
       </c>
     </row>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>21-325</t>
         </is>
       </c>
     </row>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -3345,7 +3345,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -3357,7 +3357,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>15-122</t>
         </is>
       </c>
     </row>
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>15-359</t>
         </is>
       </c>
     </row>
@@ -3381,7 +3381,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -3393,7 +3393,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -3429,7 +3429,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -3453,7 +3453,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -3477,7 +3477,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -3525,7 +3525,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -3537,7 +3537,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
     </row>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-251</t>
         </is>
       </c>
     </row>
@@ -3621,7 +3621,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>85-213</t>
+          <t>85-211</t>
         </is>
       </c>
     </row>
@@ -3645,7 +3645,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>85-219</t>
+          <t>85-429</t>
         </is>
       </c>
     </row>
@@ -3657,7 +3657,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-213</t>
         </is>
       </c>
     </row>
@@ -3669,7 +3669,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>85-429</t>
+          <t>85-219</t>
         </is>
       </c>
     </row>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>15-359</t>
+          <t>21-128</t>
         </is>
       </c>
     </row>
@@ -3717,7 +3717,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>21-325</t>
         </is>
       </c>
     </row>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>21-240</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -3741,7 +3741,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>21-242</t>
+          <t>15-259</t>
         </is>
       </c>
     </row>
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -3765,7 +3765,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>36-217</t>
         </is>
       </c>
     </row>
@@ -3789,7 +3789,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>15-359</t>
         </is>
       </c>
     </row>
@@ -3801,7 +3801,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>21-240</t>
         </is>
       </c>
     </row>
@@ -3813,7 +3813,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>21-242</t>
         </is>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-219</t>
         </is>
       </c>
     </row>
@@ -3921,7 +3921,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -3945,7 +3945,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -3969,7 +3969,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -4065,7 +4065,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>15-112</t>
         </is>
       </c>
     </row>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -4101,7 +4101,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -4137,7 +4137,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -4149,7 +4149,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-228</t>
         </is>
       </c>
     </row>
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-251</t>
         </is>
       </c>
     </row>
@@ -4197,7 +4197,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -4209,7 +4209,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -4221,7 +4221,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -4245,7 +4245,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -4281,7 +4281,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -4353,7 +4353,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>21-325</t>
         </is>
       </c>
     </row>
@@ -4365,7 +4365,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>36-247</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>36-217</t>
         </is>
       </c>
     </row>
@@ -4413,7 +4413,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-247</t>
         </is>
       </c>
     </row>
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -4461,7 +4461,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -4473,7 +4473,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>36-219</t>
         </is>
       </c>
     </row>
@@ -4497,7 +4497,7 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -4521,7 +4521,7 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>15-213</t>
+          <t>17-214</t>
         </is>
       </c>
     </row>
@@ -4533,7 +4533,7 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>18-213</t>
+          <t>14-513</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>15-214</t>
+          <t>18-213</t>
         </is>
       </c>
     </row>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>14-513</t>
+          <t>15-214</t>
         </is>
       </c>
     </row>
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>17-214</t>
+          <t>15-513</t>
         </is>
       </c>
     </row>
@@ -4605,7 +4605,7 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>15-513</t>
+          <t>15-213</t>
         </is>
       </c>
     </row>
@@ -4617,7 +4617,7 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>09-105</t>
+          <t>09-107</t>
         </is>
       </c>
     </row>
@@ -4629,7 +4629,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>09-107</t>
+          <t>09-105</t>
         </is>
       </c>
     </row>
@@ -4641,7 +4641,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -4665,7 +4665,7 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-217</t>
         </is>
       </c>
     </row>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -4701,7 +4701,7 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -4713,7 +4713,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -4725,7 +4725,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -4737,7 +4737,7 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -4749,7 +4749,7 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>09-345</t>
+          <t>09-348</t>
         </is>
       </c>
     </row>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>09-214</t>
+          <t>09-347</t>
         </is>
       </c>
     </row>
@@ -4773,7 +4773,7 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>09-347</t>
+          <t>09-345</t>
         </is>
       </c>
     </row>
@@ -4785,7 +4785,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>09-344</t>
+          <t>09-214</t>
         </is>
       </c>
     </row>
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>09-348</t>
+          <t>09-344</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -4845,7 +4845,7 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -4869,7 +4869,7 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -4905,7 +4905,7 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>76-260</t>
+          <t>76-270</t>
         </is>
       </c>
     </row>
@@ -4917,7 +4917,7 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>76-262</t>
+          <t>76-372</t>
         </is>
       </c>
     </row>
@@ -4941,7 +4941,7 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>76-372</t>
+          <t>76-272</t>
         </is>
       </c>
     </row>
@@ -4953,7 +4953,7 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>76-272</t>
+          <t>76-260</t>
         </is>
       </c>
     </row>
@@ -4965,7 +4965,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>76-262</t>
         </is>
       </c>
     </row>
@@ -4977,7 +4977,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>70-122</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>70-122</t>
+          <t>70-391</t>
         </is>
       </c>
     </row>
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-240</t>
         </is>
       </c>
     </row>
@@ -5013,7 +5013,7 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-320</t>
         </is>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>09-214</t>
+          <t>09-345</t>
         </is>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>09-345</t>
+          <t>09-347</t>
         </is>
       </c>
     </row>
@@ -5073,7 +5073,7 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>09-347</t>
+          <t>09-214</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
@@ -5109,7 +5109,7 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>36-217</t>
         </is>
       </c>
     </row>
@@ -5121,7 +5121,7 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -5145,7 +5145,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -5157,7 +5157,7 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-219</t>
         </is>
       </c>
     </row>
@@ -5169,7 +5169,7 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -5193,7 +5193,7 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -5217,7 +5217,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -5241,7 +5241,7 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -5253,7 +5253,7 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -5265,7 +5265,7 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>09-106</t>
         </is>
       </c>
     </row>
@@ -5277,7 +5277,7 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>09-217</t>
+          <t>03-231</t>
         </is>
       </c>
     </row>
@@ -5289,7 +5289,7 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-232</t>
         </is>
       </c>
     </row>
@@ -5301,7 +5301,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>09-107</t>
+          <t>09-217</t>
         </is>
       </c>
     </row>
@@ -5325,7 +5325,7 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>09-106</t>
+          <t>09-107</t>
         </is>
       </c>
     </row>
@@ -5337,7 +5337,7 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>15-221</t>
+          <t>76-270</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>15-221</t>
         </is>
       </c>
     </row>
@@ -5385,7 +5385,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -5397,7 +5397,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -5433,7 +5433,7 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -5469,7 +5469,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>76-271</t>
+          <t>76-270</t>
         </is>
       </c>
     </row>
@@ -5481,7 +5481,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>76-272</t>
+          <t>76-271</t>
         </is>
       </c>
     </row>
@@ -5493,7 +5493,7 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>76-270</t>
+          <t>76-272</t>
         </is>
       </c>
     </row>
@@ -5529,7 +5529,7 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>80-211</t>
+          <t>15-317</t>
         </is>
       </c>
     </row>
@@ -5553,7 +5553,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>21-300</t>
+          <t>80-211</t>
         </is>
       </c>
     </row>
@@ -5565,7 +5565,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>15-317</t>
+          <t>21-300</t>
         </is>
       </c>
     </row>
@@ -5577,7 +5577,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5601,7 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -5637,7 +5637,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>67-250</t>
+          <t>70-110</t>
         </is>
       </c>
     </row>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>70-110</t>
+          <t>67-250</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -5673,7 +5673,7 @@
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -5685,7 +5685,7 @@
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -5829,7 +5829,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -5841,7 +5841,7 @@
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>67-250</t>
+          <t>70-110</t>
         </is>
       </c>
     </row>
@@ -5853,7 +5853,7 @@
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>70-110</t>
+          <t>67-250</t>
         </is>
       </c>
     </row>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -5913,7 +5913,7 @@
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -5937,7 +5937,7 @@
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-265</t>
         </is>
       </c>
     </row>
@@ -5961,7 +5961,7 @@
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>73-265</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -5973,7 +5973,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -6057,7 +6057,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -6081,7 +6081,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -6105,7 +6105,7 @@
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -6165,7 +6165,7 @@
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -6177,7 +6177,7 @@
       </c>
       <c r="B479" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -6213,7 +6213,7 @@
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>09-219</t>
+          <t>09-217</t>
         </is>
       </c>
     </row>
@@ -6225,7 +6225,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>09-217</t>
+          <t>09-219</t>
         </is>
       </c>
     </row>
@@ -6249,7 +6249,7 @@
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -6261,7 +6261,7 @@
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -6273,7 +6273,7 @@
       </c>
       <c r="B487" t="inlineStr">
         <is>
-          <t>82-104</t>
+          <t>82-102</t>
         </is>
       </c>
     </row>
@@ -6285,7 +6285,7 @@
       </c>
       <c r="B488" t="inlineStr">
         <is>
-          <t>82-102</t>
+          <t>82-104</t>
         </is>
       </c>
     </row>
@@ -6297,7 +6297,7 @@
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-709</t>
         </is>
       </c>
     </row>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>03-709</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -6321,7 +6321,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -6357,7 +6357,7 @@
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>15-150</t>
+          <t>21-128</t>
         </is>
       </c>
     </row>
@@ -6393,7 +6393,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>15-150</t>
         </is>
       </c>
     </row>
@@ -6477,7 +6477,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -6489,7 +6489,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6501,7 @@
       </c>
       <c r="B506" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -6513,7 +6513,7 @@
       </c>
       <c r="B507" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -6525,7 +6525,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -6537,7 +6537,7 @@
       </c>
       <c r="B509" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -6561,7 +6561,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -6573,7 +6573,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -6585,7 +6585,7 @@
       </c>
       <c r="B513" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -6597,7 +6597,7 @@
       </c>
       <c r="B514" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -6609,7 +6609,7 @@
       </c>
       <c r="B515" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -6621,7 +6621,7 @@
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -6633,7 +6633,7 @@
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -6645,7 +6645,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -6657,7 +6657,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="B529" t="inlineStr">
         <is>
-          <t>73-270</t>
+          <t>70-340</t>
         </is>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
       </c>
       <c r="B530" t="inlineStr">
         <is>
-          <t>70-340</t>
+          <t>73-270</t>
         </is>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>21-240</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>15-122</t>
         </is>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="B534" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>21-240</t>
         </is>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
       </c>
       <c r="B535" t="inlineStr">
         <is>
-          <t>18-202</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
       </c>
       <c r="B536" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
       </c>
       <c r="B537" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>18-202</t>
         </is>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
       </c>
       <c r="B538" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       </c>
       <c r="B542" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       </c>
       <c r="B543" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-221</t>
         </is>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="B544" t="inlineStr">
         <is>
-          <t>85-221</t>
+          <t>85-211</t>
         </is>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
       </c>
       <c r="B545" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
       </c>
       <c r="B549" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="B550" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>15-112</t>
         </is>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="B551" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>21-370</t>
         </is>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>21-370</t>
+          <t>70-391</t>
         </is>
       </c>
     </row>
@@ -7089,7 +7089,7 @@
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -7101,7 +7101,7 @@
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -7113,7 +7113,7 @@
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -7137,7 +7137,7 @@
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -7149,7 +7149,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -7161,7 +7161,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -7173,7 +7173,7 @@
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -7185,7 +7185,7 @@
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -7233,7 +7233,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>15-150</t>
+          <t>21-228</t>
         </is>
       </c>
     </row>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-150</t>
         </is>
       </c>
     </row>
@@ -7269,7 +7269,7 @@
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>21-123</t>
+          <t>21-122</t>
         </is>
       </c>
     </row>
@@ -7293,7 +7293,7 @@
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>21-122</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -7305,7 +7305,7 @@
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-123</t>
         </is>
       </c>
     </row>
@@ -7317,7 +7317,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -7329,7 +7329,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -7341,7 +7341,7 @@
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -7365,7 +7365,7 @@
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -7389,7 +7389,7 @@
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -7401,7 +7401,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>73-240</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -7413,7 +7413,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>36-226</t>
+          <t>21-325</t>
         </is>
       </c>
     </row>
@@ -7425,7 +7425,7 @@
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -7437,7 +7437,7 @@
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>36-226</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>73-240</t>
         </is>
       </c>
     </row>
@@ -7485,7 +7485,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -7521,7 +7521,7 @@
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -7557,7 +7557,7 @@
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>21-242</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -7569,7 +7569,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -7581,7 +7581,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -7593,7 +7593,7 @@
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>21-242</t>
         </is>
       </c>
     </row>
@@ -7605,7 +7605,7 @@
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -7617,7 +7617,7 @@
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -7629,7 +7629,7 @@
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -7665,7 +7665,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -7677,7 +7677,7 @@
       </c>
       <c r="B604" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -7689,7 +7689,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -7713,7 +7713,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-327</t>
         </is>
       </c>
     </row>
@@ -7749,7 +7749,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>76-245</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -7761,7 +7761,7 @@
       </c>
       <c r="B611" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-347</t>
         </is>
       </c>
     </row>
@@ -7773,7 +7773,7 @@
       </c>
       <c r="B612" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>76-331</t>
         </is>
       </c>
     </row>
@@ -7797,7 +7797,7 @@
       </c>
       <c r="B614" t="inlineStr">
         <is>
-          <t>76-331</t>
+          <t>76-245</t>
         </is>
       </c>
     </row>
@@ -7809,7 +7809,7 @@
       </c>
       <c r="B615" t="inlineStr">
         <is>
-          <t>76-347</t>
+          <t>76-101</t>
         </is>
       </c>
     </row>
@@ -7821,7 +7821,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>76-327</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -7869,7 +7869,7 @@
       </c>
       <c r="B620" t="inlineStr">
         <is>
-          <t>15-210</t>
+          <t>21-228</t>
         </is>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       </c>
       <c r="B621" t="inlineStr">
         <is>
-          <t>21-228</t>
+          <t>15-210</t>
         </is>
       </c>
     </row>
@@ -7893,7 +7893,7 @@
       </c>
       <c r="B622" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -7905,7 +7905,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -7917,7 +7917,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -7941,7 +7941,7 @@
       </c>
       <c r="B626" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -7953,7 +7953,7 @@
       </c>
       <c r="B627" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -7965,7 +7965,7 @@
       </c>
       <c r="B628" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -7977,7 +7977,7 @@
       </c>
       <c r="B629" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -8013,7 +8013,7 @@
       </c>
       <c r="B632" t="inlineStr">
         <is>
-          <t>09-105</t>
+          <t>09-107</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="B633" t="inlineStr">
         <is>
-          <t>09-107</t>
+          <t>09-105</t>
         </is>
       </c>
     </row>
@@ -8049,7 +8049,7 @@
       </c>
       <c r="B635" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -8061,7 +8061,7 @@
       </c>
       <c r="B636" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
@@ -8073,7 +8073,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -8085,7 +8085,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -8097,7 +8097,7 @@
       </c>
       <c r="B639" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B640" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -8121,7 +8121,7 @@
       </c>
       <c r="B641" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -8133,7 +8133,7 @@
       </c>
       <c r="B642" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -8241,7 +8241,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
       </c>
       <c r="B653" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -8289,7 +8289,7 @@
       </c>
       <c r="B655" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="B656" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>85-309</t>
         </is>
       </c>
     </row>
@@ -8313,7 +8313,7 @@
       </c>
       <c r="B657" t="inlineStr">
         <is>
-          <t>85-251</t>
+          <t>36-309</t>
         </is>
       </c>
     </row>
@@ -8325,7 +8325,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>85-241</t>
+          <t>85-251</t>
         </is>
       </c>
     </row>
@@ -8337,7 +8337,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>85-309</t>
+          <t>85-241</t>
         </is>
       </c>
     </row>
@@ -8397,7 +8397,7 @@
       </c>
       <c r="B664" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -8409,7 +8409,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -8421,7 +8421,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -8445,7 +8445,7 @@
       </c>
       <c r="B668" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -8469,7 +8469,7 @@
       </c>
       <c r="B670" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -8481,7 +8481,7 @@
       </c>
       <c r="B671" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -8493,7 +8493,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>76-380</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -8505,7 +8505,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-380</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       </c>
       <c r="B675" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -8553,7 +8553,7 @@
       </c>
       <c r="B677" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-343</t>
         </is>
       </c>
     </row>
@@ -8565,7 +8565,7 @@
       </c>
       <c r="B678" t="inlineStr">
         <is>
-          <t>03-343</t>
+          <t>03-232</t>
         </is>
       </c>
     </row>
@@ -8601,7 +8601,7 @@
       </c>
       <c r="B681" t="inlineStr">
         <is>
-          <t>76-360</t>
+          <t>76-365</t>
         </is>
       </c>
     </row>
@@ -8613,7 +8613,7 @@
       </c>
       <c r="B682" t="inlineStr">
         <is>
-          <t>76-365</t>
+          <t>76-460</t>
         </is>
       </c>
     </row>
@@ -8625,7 +8625,7 @@
       </c>
       <c r="B683" t="inlineStr">
         <is>
-          <t>76-460</t>
+          <t>76-360</t>
         </is>
       </c>
     </row>
@@ -8637,7 +8637,7 @@
       </c>
       <c r="B684" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -8649,7 +8649,7 @@
       </c>
       <c r="B685" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -8661,7 +8661,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -8685,7 +8685,7 @@
       </c>
       <c r="B688" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -8709,7 +8709,7 @@
       </c>
       <c r="B690" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -8721,7 +8721,7 @@
       </c>
       <c r="B691" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -8733,7 +8733,7 @@
       </c>
       <c r="B692" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -8757,7 +8757,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -8769,7 +8769,7 @@
       </c>
       <c r="B695" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       </c>
       <c r="B696" t="inlineStr">
         <is>
-          <t>03-233</t>
+          <t>03-232</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       </c>
       <c r="B697" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -8805,7 +8805,7 @@
       </c>
       <c r="B698" t="inlineStr">
         <is>
-          <t>03-120</t>
+          <t>03-233</t>
         </is>
       </c>
     </row>
@@ -8817,7 +8817,7 @@
       </c>
       <c r="B699" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-120</t>
         </is>
       </c>
     </row>
@@ -8829,7 +8829,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -8841,7 +8841,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>15-251</t>
+          <t>21-242</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="B702" t="inlineStr">
         <is>
-          <t>21-242</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -8877,7 +8877,7 @@
       </c>
       <c r="B704" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>15-251</t>
         </is>
       </c>
     </row>
@@ -8889,7 +8889,7 @@
       </c>
       <c r="B705" t="inlineStr">
         <is>
-          <t>21-242</t>
+          <t>06-262</t>
         </is>
       </c>
     </row>
@@ -8901,7 +8901,7 @@
       </c>
       <c r="B706" t="inlineStr">
         <is>
-          <t>21-240</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -8913,7 +8913,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>06-262</t>
+          <t>21-240</t>
         </is>
       </c>
     </row>
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>18-202</t>
+          <t>21-242</t>
         </is>
       </c>
     </row>
@@ -8937,7 +8937,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>18-202</t>
         </is>
       </c>
     </row>
@@ -8973,7 +8973,7 @@
       </c>
       <c r="B712" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -8985,7 +8985,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="B716" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -9033,7 +9033,7 @@
       </c>
       <c r="B717" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       </c>
       <c r="B719" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -9081,7 +9081,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-219</t>
         </is>
       </c>
     </row>
@@ -9093,7 +9093,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>85-219</t>
+          <t>85-211</t>
         </is>
       </c>
     </row>
@@ -9117,7 +9117,7 @@
       </c>
       <c r="B724" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -9129,7 +9129,7 @@
       </c>
       <c r="B725" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -9141,7 +9141,7 @@
       </c>
       <c r="B726" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -9165,7 +9165,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -9189,7 +9189,7 @@
       </c>
       <c r="B730" t="inlineStr">
         <is>
-          <t>03-232</t>
+          <t>03-231</t>
         </is>
       </c>
     </row>
@@ -9201,7 +9201,7 @@
       </c>
       <c r="B731" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-320</t>
         </is>
       </c>
     </row>
@@ -9213,7 +9213,7 @@
       </c>
       <c r="B732" t="inlineStr">
         <is>
-          <t>03-343</t>
+          <t>03-232</t>
         </is>
       </c>
     </row>
@@ -9225,7 +9225,7 @@
       </c>
       <c r="B733" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-240</t>
         </is>
       </c>
     </row>
@@ -9237,7 +9237,7 @@
       </c>
       <c r="B734" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-343</t>
         </is>
       </c>
     </row>
@@ -9261,7 +9261,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -9273,7 +9273,7 @@
       </c>
       <c r="B737" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -9285,7 +9285,7 @@
       </c>
       <c r="B738" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -9297,7 +9297,7 @@
       </c>
       <c r="B739" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       </c>
       <c r="B740" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       </c>
       <c r="B741" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-217</t>
         </is>
       </c>
     </row>
@@ -9333,7 +9333,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>70-391</t>
         </is>
       </c>
     </row>
@@ -9345,7 +9345,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>70-391</t>
+          <t>70-208</t>
         </is>
       </c>
     </row>
@@ -9357,7 +9357,7 @@
       </c>
       <c r="B744" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>15-112</t>
         </is>
       </c>
     </row>
@@ -9369,7 +9369,7 @@
       </c>
       <c r="B745" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -9405,7 +9405,7 @@
       </c>
       <c r="B748" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -9417,7 +9417,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -9429,7 +9429,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -9441,7 +9441,7 @@
       </c>
       <c r="B751" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -9465,7 +9465,7 @@
       </c>
       <c r="B753" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -9477,7 +9477,7 @@
       </c>
       <c r="B754" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -9489,7 +9489,7 @@
       </c>
       <c r="B755" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -9513,7 +9513,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -9549,7 +9549,7 @@
       </c>
       <c r="B760" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="B761" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       </c>
       <c r="B762" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -9597,7 +9597,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -9633,7 +9633,7 @@
       </c>
       <c r="B767" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -9657,7 +9657,7 @@
       </c>
       <c r="B769" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -9669,7 +9669,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -9693,7 +9693,7 @@
       </c>
       <c r="B772" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -9705,7 +9705,7 @@
       </c>
       <c r="B773" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -9717,7 +9717,7 @@
       </c>
       <c r="B774" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -9729,7 +9729,7 @@
       </c>
       <c r="B775" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-231</t>
         </is>
       </c>
     </row>
@@ -9741,7 +9741,7 @@
       </c>
       <c r="B776" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-240</t>
         </is>
       </c>
     </row>
@@ -9753,7 +9753,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-320</t>
         </is>
       </c>
     </row>
@@ -9777,7 +9777,7 @@
       </c>
       <c r="B779" t="inlineStr">
         <is>
-          <t>73-160</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -9801,7 +9801,7 @@
       </c>
       <c r="B781" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>73-160</t>
         </is>
       </c>
     </row>
@@ -9825,7 +9825,7 @@
       </c>
       <c r="B783" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>15-259</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -9861,7 +9861,7 @@
       </c>
       <c r="B786" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -9873,7 +9873,7 @@
       </c>
       <c r="B787" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -9897,7 +9897,7 @@
       </c>
       <c r="B789" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="B790" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -9921,7 +9921,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -9933,7 +9933,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>15-295</t>
+          <t>15-195</t>
         </is>
       </c>
     </row>
@@ -9945,7 +9945,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>15-195</t>
+          <t>15-122</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="B794" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>15-295</t>
         </is>
       </c>
     </row>
@@ -10005,7 +10005,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>15-121</t>
+          <t>15-122</t>
         </is>
       </c>
     </row>
@@ -10017,7 +10017,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>15-121</t>
         </is>
       </c>
     </row>
@@ -10041,7 +10041,7 @@
       </c>
       <c r="B801" t="inlineStr">
         <is>
-          <t>70-381</t>
+          <t>73-110</t>
         </is>
       </c>
     </row>
@@ -10053,7 +10053,7 @@
       </c>
       <c r="B802" t="inlineStr">
         <is>
-          <t>73-110</t>
+          <t>70-381</t>
         </is>
       </c>
     </row>
@@ -10065,7 +10065,7 @@
       </c>
       <c r="B803" t="inlineStr">
         <is>
-          <t>21-257</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -10077,7 +10077,7 @@
       </c>
       <c r="B804" t="inlineStr">
         <is>
-          <t>21-292</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -10089,7 +10089,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>21-292</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       </c>
       <c r="B807" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -10125,7 +10125,7 @@
       </c>
       <c r="B808" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>70-257</t>
         </is>
       </c>
     </row>
@@ -10137,7 +10137,7 @@
       </c>
       <c r="B809" t="inlineStr">
         <is>
-          <t>70-257</t>
+          <t>21-257</t>
         </is>
       </c>
     </row>
@@ -10149,7 +10149,7 @@
       </c>
       <c r="B810" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -10161,7 +10161,7 @@
       </c>
       <c r="B811" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -10197,7 +10197,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -10209,7 +10209,7 @@
       </c>
       <c r="B815" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -10221,7 +10221,7 @@
       </c>
       <c r="B816" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -10245,7 +10245,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -10257,7 +10257,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>21-240</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -10269,7 +10269,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>18-202</t>
+          <t>21-240</t>
         </is>
       </c>
     </row>
@@ -10281,7 +10281,7 @@
       </c>
       <c r="B821" t="inlineStr">
         <is>
-          <t>21-260</t>
+          <t>18-202</t>
         </is>
       </c>
     </row>
@@ -10293,7 +10293,7 @@
       </c>
       <c r="B822" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>24-311</t>
         </is>
       </c>
     </row>
@@ -10305,7 +10305,7 @@
       </c>
       <c r="B823" t="inlineStr">
         <is>
-          <t>24-311</t>
+          <t>21-260</t>
         </is>
       </c>
     </row>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="B824" t="inlineStr">
         <is>
-          <t>48-135</t>
+          <t>51-122</t>
         </is>
       </c>
     </row>
@@ -10329,7 +10329,7 @@
       </c>
       <c r="B825" t="inlineStr">
         <is>
-          <t>51-122</t>
+          <t>48-135</t>
         </is>
       </c>
     </row>
@@ -10341,7 +10341,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>21-242</t>
         </is>
       </c>
     </row>
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>21-242</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -10377,7 +10377,7 @@
       </c>
       <c r="B829" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -10389,7 +10389,7 @@
       </c>
       <c r="B830" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -10401,7 +10401,7 @@
       </c>
       <c r="B831" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -10425,7 +10425,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -10521,7 +10521,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -10533,7 +10533,7 @@
       </c>
       <c r="B842" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -10545,7 +10545,7 @@
       </c>
       <c r="B843" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -10569,7 +10569,7 @@
       </c>
       <c r="B845" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -10581,7 +10581,7 @@
       </c>
       <c r="B846" t="inlineStr">
         <is>
-          <t>02-201</t>
+          <t>15-110</t>
         </is>
       </c>
     </row>
@@ -10593,7 +10593,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -10605,7 +10605,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>15-110</t>
+          <t>03-131</t>
         </is>
       </c>
     </row>
@@ -10617,7 +10617,7 @@
       </c>
       <c r="B849" t="inlineStr">
         <is>
-          <t>03-131</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -10629,7 +10629,7 @@
       </c>
       <c r="B850" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>02-201</t>
         </is>
       </c>
     </row>
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B851" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>15-112</t>
         </is>
       </c>
     </row>
@@ -10653,7 +10653,7 @@
       </c>
       <c r="B852" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -10665,7 +10665,7 @@
       </c>
       <c r="B853" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -10677,7 +10677,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -10701,7 +10701,7 @@
       </c>
       <c r="B856" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -10713,7 +10713,7 @@
       </c>
       <c r="B857" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -10725,7 +10725,7 @@
       </c>
       <c r="B858" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -10737,7 +10737,7 @@
       </c>
       <c r="B859" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -10749,7 +10749,7 @@
       </c>
       <c r="B860" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -10773,7 +10773,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -10797,7 +10797,7 @@
       </c>
       <c r="B864" t="inlineStr">
         <is>
-          <t>21-128</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -10809,7 +10809,7 @@
       </c>
       <c r="B865" t="inlineStr">
         <is>
-          <t>21-122</t>
+          <t>21-128</t>
         </is>
       </c>
     </row>
@@ -10821,7 +10821,7 @@
       </c>
       <c r="B866" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-122</t>
         </is>
       </c>
     </row>
@@ -10833,7 +10833,7 @@
       </c>
       <c r="B867" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -10845,7 +10845,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -10857,7 +10857,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -10869,7 +10869,7 @@
       </c>
       <c r="B870" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -10893,7 +10893,7 @@
       </c>
       <c r="B872" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -10917,7 +10917,7 @@
       </c>
       <c r="B874" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -10929,7 +10929,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -10941,7 +10941,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -10953,7 +10953,7 @@
       </c>
       <c r="B877" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -10965,7 +10965,7 @@
       </c>
       <c r="B878" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -10977,7 +10977,7 @@
       </c>
       <c r="B879" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -10989,7 +10989,7 @@
       </c>
       <c r="B880" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -11001,7 +11001,7 @@
       </c>
       <c r="B881" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11025,7 +11025,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11037,7 +11037,7 @@
       </c>
       <c r="B884" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -11049,7 +11049,7 @@
       </c>
       <c r="B885" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="B886" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11085,7 +11085,7 @@
       </c>
       <c r="B888" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11097,7 +11097,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -11109,7 +11109,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -11133,7 +11133,7 @@
       </c>
       <c r="B892" t="inlineStr">
         <is>
-          <t>21-127</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -11145,7 +11145,7 @@
       </c>
       <c r="B893" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>15-150</t>
         </is>
       </c>
     </row>
@@ -11157,7 +11157,7 @@
       </c>
       <c r="B894" t="inlineStr">
         <is>
-          <t>15-150</t>
+          <t>15-122</t>
         </is>
       </c>
     </row>
@@ -11169,7 +11169,7 @@
       </c>
       <c r="B895" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>21-127</t>
         </is>
       </c>
     </row>
@@ -11193,7 +11193,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-373</t>
         </is>
       </c>
     </row>
@@ -11217,7 +11217,7 @@
       </c>
       <c r="B899" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11229,7 +11229,7 @@
       </c>
       <c r="B900" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-101</t>
         </is>
       </c>
     </row>
@@ -11241,7 +11241,7 @@
       </c>
       <c r="B901" t="inlineStr">
         <is>
-          <t>76-373</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="B902" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -11265,7 +11265,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>21-121</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -11277,7 +11277,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>21-121</t>
         </is>
       </c>
     </row>
@@ -11289,7 +11289,7 @@
       </c>
       <c r="B905" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="B906" t="inlineStr">
         <is>
-          <t>80-305</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -11313,7 +11313,7 @@
       </c>
       <c r="B907" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -11325,7 +11325,7 @@
       </c>
       <c r="B908" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>80-305</t>
         </is>
       </c>
     </row>
@@ -11361,7 +11361,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>15-259</t>
+          <t>21-325</t>
         </is>
       </c>
     </row>
@@ -11373,7 +11373,7 @@
       </c>
       <c r="B912" t="inlineStr">
         <is>
-          <t>36-219</t>
+          <t>36-208</t>
         </is>
       </c>
     </row>
@@ -11385,7 +11385,7 @@
       </c>
       <c r="B913" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="B914" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>15-259</t>
         </is>
       </c>
     </row>
@@ -11409,7 +11409,7 @@
       </c>
       <c r="B915" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -11421,7 +11421,7 @@
       </c>
       <c r="B916" t="inlineStr">
         <is>
-          <t>36-208</t>
+          <t>70-208</t>
         </is>
       </c>
     </row>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>36-309</t>
         </is>
       </c>
     </row>
@@ -11457,7 +11457,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>21-325</t>
+          <t>36-219</t>
         </is>
       </c>
     </row>
@@ -11469,7 +11469,7 @@
       </c>
       <c r="B920" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -11481,7 +11481,7 @@
       </c>
       <c r="B921" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="B922" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -11505,7 +11505,7 @@
       </c>
       <c r="B923" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -11517,7 +11517,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -11529,7 +11529,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>03-161</t>
+          <t>03-320</t>
         </is>
       </c>
     </row>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="B926" t="inlineStr">
         <is>
-          <t>85-219</t>
+          <t>42-202</t>
         </is>
       </c>
     </row>
@@ -11553,7 +11553,7 @@
       </c>
       <c r="B927" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-230</t>
         </is>
       </c>
     </row>
@@ -11565,7 +11565,7 @@
       </c>
       <c r="B928" t="inlineStr">
         <is>
-          <t>03-230</t>
+          <t>03-161</t>
         </is>
       </c>
     </row>
@@ -11577,7 +11577,7 @@
       </c>
       <c r="B929" t="inlineStr">
         <is>
-          <t>42-202</t>
+          <t>85-219</t>
         </is>
       </c>
     </row>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="B934" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -11649,7 +11649,7 @@
       </c>
       <c r="B935" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -11661,7 +11661,7 @@
       </c>
       <c r="B936" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11697,7 +11697,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -11709,7 +11709,7 @@
       </c>
       <c r="B940" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -11721,7 +11721,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11745,7 +11745,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -11769,7 +11769,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11805,7 +11805,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -11841,7 +11841,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -11853,7 +11853,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="B954" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="B955" t="inlineStr">
         <is>
-          <t>09-107</t>
+          <t>09-106</t>
         </is>
       </c>
     </row>
@@ -11901,7 +11901,7 @@
       </c>
       <c r="B956" t="inlineStr">
         <is>
-          <t>09-106</t>
+          <t>09-107</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="B957" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="B958" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -11937,7 +11937,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -11961,7 +11961,7 @@
       </c>
       <c r="B961" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -11997,7 +11997,7 @@
       </c>
       <c r="B964" t="inlineStr">
         <is>
-          <t>62-150</t>
+          <t>18-090</t>
         </is>
       </c>
     </row>
@@ -12009,7 +12009,7 @@
       </c>
       <c r="B965" t="inlineStr">
         <is>
-          <t>18-090</t>
+          <t>62-150</t>
         </is>
       </c>
     </row>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -12045,7 +12045,7 @@
       </c>
       <c r="B968" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -12057,7 +12057,7 @@
       </c>
       <c r="B969" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -12081,7 +12081,7 @@
       </c>
       <c r="B971" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -12093,7 +12093,7 @@
       </c>
       <c r="B972" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -12105,7 +12105,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -12117,7 +12117,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -12141,7 +12141,7 @@
       </c>
       <c r="B976" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -12153,7 +12153,7 @@
       </c>
       <c r="B977" t="inlineStr">
         <is>
-          <t>21-112</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="B978" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>21-112</t>
         </is>
       </c>
     </row>
@@ -12189,7 +12189,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -12201,7 +12201,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -12213,7 +12213,7 @@
       </c>
       <c r="B982" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -12237,7 +12237,7 @@
       </c>
       <c r="B984" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -12249,7 +12249,7 @@
       </c>
       <c r="B985" t="inlineStr">
         <is>
-          <t>15-122</t>
+          <t>67-262</t>
         </is>
       </c>
     </row>
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B986" t="inlineStr">
         <is>
-          <t>67-262</t>
+          <t>15-122</t>
         </is>
       </c>
     </row>
@@ -12285,7 +12285,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -12297,7 +12297,7 @@
       </c>
       <c r="B989" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -12309,7 +12309,7 @@
       </c>
       <c r="B990" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="B992" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -12345,7 +12345,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>70-421</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -12357,7 +12357,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>70-420</t>
+          <t>70-414</t>
         </is>
       </c>
     </row>
@@ -12381,7 +12381,7 @@
       </c>
       <c r="B996" t="inlineStr">
         <is>
-          <t>15-390</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -12393,7 +12393,7 @@
       </c>
       <c r="B997" t="inlineStr">
         <is>
-          <t>70-414</t>
+          <t>70-421</t>
         </is>
       </c>
     </row>
@@ -12405,7 +12405,7 @@
       </c>
       <c r="B998" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>70-420</t>
         </is>
       </c>
     </row>
@@ -12417,7 +12417,7 @@
       </c>
       <c r="B999" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>70-415</t>
         </is>
       </c>
     </row>
@@ -12429,7 +12429,7 @@
       </c>
       <c r="B1000" t="inlineStr">
         <is>
-          <t>70-415</t>
+          <t>15-390</t>
         </is>
       </c>
     </row>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -12453,7 +12453,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       </c>
       <c r="B1003" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -12489,7 +12489,7 @@
       </c>
       <c r="B1005" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -12501,7 +12501,7 @@
       </c>
       <c r="B1006" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -12525,7 +12525,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>36-217</t>
         </is>
       </c>
     </row>
@@ -12537,7 +12537,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -12549,7 +12549,7 @@
       </c>
       <c r="B1010" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -12561,7 +12561,7 @@
       </c>
       <c r="B1011" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -12573,7 +12573,7 @@
       </c>
       <c r="B1012" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -12585,7 +12585,7 @@
       </c>
       <c r="B1013" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -12597,7 +12597,7 @@
       </c>
       <c r="B1014" t="inlineStr">
         <is>
-          <t>36-225</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -12609,7 +12609,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-225</t>
         </is>
       </c>
     </row>
@@ -12621,7 +12621,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>21-120</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -12633,7 +12633,7 @@
       </c>
       <c r="B1017" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -12657,7 +12657,7 @@
       </c>
       <c r="B1019" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>21-120</t>
         </is>
       </c>
     </row>
@@ -12669,7 +12669,7 @@
       </c>
       <c r="B1020" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -12693,7 +12693,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>70-104</t>
+          <t>70-105</t>
         </is>
       </c>
     </row>
@@ -12705,7 +12705,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>70-105</t>
+          <t>70-104</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="B1024" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -12729,7 +12729,7 @@
       </c>
       <c r="B1025" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -12741,7 +12741,7 @@
       </c>
       <c r="B1026" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -12765,7 +12765,7 @@
       </c>
       <c r="B1028" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -12777,7 +12777,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>03-161</t>
+          <t>03-320</t>
         </is>
       </c>
     </row>
@@ -12789,7 +12789,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>85-219</t>
+          <t>42-202</t>
         </is>
       </c>
     </row>
@@ -12801,7 +12801,7 @@
       </c>
       <c r="B1031" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-230</t>
         </is>
       </c>
     </row>
@@ -12813,7 +12813,7 @@
       </c>
       <c r="B1032" t="inlineStr">
         <is>
-          <t>03-230</t>
+          <t>03-161</t>
         </is>
       </c>
     </row>
@@ -12825,7 +12825,7 @@
       </c>
       <c r="B1033" t="inlineStr">
         <is>
-          <t>42-202</t>
+          <t>03-240</t>
         </is>
       </c>
     </row>
@@ -12837,7 +12837,7 @@
       </c>
       <c r="B1034" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>85-219</t>
         </is>
       </c>
     </row>
@@ -12873,7 +12873,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>15-104</t>
+          <t>15-110</t>
         </is>
       </c>
     </row>
@@ -12897,7 +12897,7 @@
       </c>
       <c r="B1039" t="inlineStr">
         <is>
-          <t>15-110</t>
+          <t>15-104</t>
         </is>
       </c>
     </row>
@@ -12909,7 +12909,7 @@
       </c>
       <c r="B1040" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -12921,7 +12921,7 @@
       </c>
       <c r="B1041" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -12933,7 +12933,7 @@
       </c>
       <c r="B1042" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -12957,7 +12957,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -12969,7 +12969,7 @@
       </c>
       <c r="B1045" t="inlineStr">
         <is>
-          <t>76-101</t>
+          <t>79-209</t>
         </is>
       </c>
     </row>
@@ -12981,7 +12981,7 @@
       </c>
       <c r="B1046" t="inlineStr">
         <is>
-          <t>79-210</t>
+          <t>79-294</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="B1047" t="inlineStr">
         <is>
-          <t>79-284</t>
+          <t>79-279</t>
         </is>
       </c>
     </row>
@@ -13005,7 +13005,7 @@
       </c>
       <c r="B1048" t="inlineStr">
         <is>
-          <t>79-294</t>
+          <t>79-210</t>
         </is>
       </c>
     </row>
@@ -13017,7 +13017,7 @@
       </c>
       <c r="B1049" t="inlineStr">
         <is>
-          <t>79-361</t>
+          <t>79-285</t>
         </is>
       </c>
     </row>
@@ -13029,7 +13029,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>79-104</t>
+          <t>79-216</t>
         </is>
       </c>
     </row>
@@ -13053,7 +13053,7 @@
       </c>
       <c r="B1052" t="inlineStr">
         <is>
-          <t>79-285</t>
+          <t>79-284</t>
         </is>
       </c>
     </row>
@@ -13065,7 +13065,7 @@
       </c>
       <c r="B1053" t="inlineStr">
         <is>
-          <t>79-216</t>
+          <t>76-101</t>
         </is>
       </c>
     </row>
@@ -13077,7 +13077,7 @@
       </c>
       <c r="B1054" t="inlineStr">
         <is>
-          <t>79-279</t>
+          <t>79-361</t>
         </is>
       </c>
     </row>
@@ -13089,7 +13089,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>79-209</t>
+          <t>79-378</t>
         </is>
       </c>
     </row>
@@ -13101,7 +13101,7 @@
       </c>
       <c r="B1056" t="inlineStr">
         <is>
-          <t>79-378</t>
+          <t>79-104</t>
         </is>
       </c>
     </row>
@@ -13113,7 +13113,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>03-151</t>
+          <t>03-231</t>
         </is>
       </c>
     </row>
@@ -13125,7 +13125,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>03-121</t>
         </is>
       </c>
     </row>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="B1060" t="inlineStr">
         <is>
-          <t>03-121</t>
+          <t>03-151</t>
         </is>
       </c>
     </row>
@@ -13173,7 +13173,7 @@
       </c>
       <c r="B1062" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -13185,7 +13185,7 @@
       </c>
       <c r="B1063" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -13197,7 +13197,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -13221,7 +13221,7 @@
       </c>
       <c r="B1066" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -13233,7 +13233,7 @@
       </c>
       <c r="B1067" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>73-100</t>
         </is>
       </c>
     </row>
@@ -13245,7 +13245,7 @@
       </c>
       <c r="B1068" t="inlineStr">
         <is>
-          <t>73-103</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -13257,7 +13257,7 @@
       </c>
       <c r="B1069" t="inlineStr">
         <is>
-          <t>73-100</t>
+          <t>73-102</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="B1070" t="inlineStr">
         <is>
-          <t>73-102</t>
+          <t>73-103</t>
         </is>
       </c>
     </row>
@@ -13293,7 +13293,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -13305,7 +13305,7 @@
       </c>
       <c r="B1073" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -13317,7 +13317,7 @@
       </c>
       <c r="B1074" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -13341,7 +13341,7 @@
       </c>
       <c r="B1076" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -13353,7 +13353,7 @@
       </c>
       <c r="B1077" t="inlineStr">
         <is>
-          <t>21-240</t>
+          <t>21-254</t>
         </is>
       </c>
     </row>
@@ -13377,7 +13377,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>21-254</t>
+          <t>21-240</t>
         </is>
       </c>
     </row>
@@ -13389,7 +13389,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>18-202</t>
+          <t>21-241</t>
         </is>
       </c>
     </row>
@@ -13413,7 +13413,7 @@
       </c>
       <c r="B1082" t="inlineStr">
         <is>
-          <t>21-241</t>
+          <t>18-202</t>
         </is>
       </c>
     </row>
@@ -13425,7 +13425,7 @@
       </c>
       <c r="B1083" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -13437,7 +13437,7 @@
       </c>
       <c r="B1084" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>73-230</t>
         </is>
       </c>
     </row>
@@ -13449,7 +13449,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>73-230</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -13461,7 +13461,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -13473,7 +13473,7 @@
       </c>
       <c r="B1087" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
@@ -13485,7 +13485,7 @@
       </c>
       <c r="B1088" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -13509,7 +13509,7 @@
       </c>
       <c r="B1090" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -13533,7 +13533,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -13557,7 +13557,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>36-201</t>
+          <t>36-247</t>
         </is>
       </c>
     </row>
@@ -13569,7 +13569,7 @@
       </c>
       <c r="B1095" t="inlineStr">
         <is>
-          <t>36-247</t>
+          <t>36-200</t>
         </is>
       </c>
     </row>
@@ -13581,7 +13581,7 @@
       </c>
       <c r="B1096" t="inlineStr">
         <is>
-          <t>36-220</t>
+          <t>70-207</t>
         </is>
       </c>
     </row>
@@ -13593,7 +13593,7 @@
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>36-200</t>
+          <t>36-220</t>
         </is>
       </c>
     </row>
@@ -13605,7 +13605,7 @@
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>36-207</t>
+          <t>36-218</t>
         </is>
       </c>
     </row>
@@ -13617,7 +13617,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>70-207</t>
+          <t>36-207</t>
         </is>
       </c>
     </row>
@@ -13629,7 +13629,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>36-218</t>
+          <t>36-201</t>
         </is>
       </c>
     </row>
@@ -13641,7 +13641,7 @@
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -13653,7 +13653,7 @@
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -13665,7 +13665,7 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -13689,7 +13689,7 @@
       </c>
       <c r="B1105" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -13701,7 +13701,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>09-208</t>
+          <t>03-231</t>
         </is>
       </c>
     </row>
@@ -13725,7 +13725,7 @@
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>03-231</t>
+          <t>09-223</t>
         </is>
       </c>
     </row>
@@ -13737,7 +13737,7 @@
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>QC-211</t>
+          <t>09-222</t>
         </is>
       </c>
     </row>
@@ -13749,7 +13749,7 @@
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>09-222</t>
+          <t>09-208</t>
         </is>
       </c>
     </row>
@@ -13761,7 +13761,7 @@
       </c>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>09-223</t>
+          <t>QC-211</t>
         </is>
       </c>
     </row>
@@ -13773,7 +13773,7 @@
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -13785,7 +13785,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -13797,7 +13797,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -13857,7 +13857,7 @@
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>36-217</t>
+          <t>36-212</t>
         </is>
       </c>
     </row>
@@ -13869,7 +13869,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>36-212</t>
+          <t>36-217</t>
         </is>
       </c>
     </row>
@@ -13893,7 +13893,7 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>02-201</t>
+          <t>15-151</t>
         </is>
       </c>
     </row>
@@ -13917,7 +13917,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>15-112</t>
+          <t>02-201</t>
         </is>
       </c>
     </row>
@@ -13929,7 +13929,7 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>15-151</t>
+          <t>15-112</t>
         </is>
       </c>
     </row>
@@ -13965,7 +13965,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>03-320</t>
+          <t>03-240</t>
         </is>
       </c>
     </row>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>03-240</t>
+          <t>03-320</t>
         </is>
       </c>
     </row>
@@ -14013,7 +14013,7 @@
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>85-309</t>
         </is>
       </c>
     </row>
@@ -14025,7 +14025,7 @@
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>85-213</t>
+          <t>36-309</t>
         </is>
       </c>
     </row>
@@ -14037,7 +14037,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>85-211</t>
+          <t>85-213</t>
         </is>
       </c>
     </row>
@@ -14049,7 +14049,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>85-309</t>
+          <t>85-211</t>
         </is>
       </c>
     </row>
@@ -14097,7 +14097,7 @@
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>15-121</t>
+          <t>67-272</t>
         </is>
       </c>
     </row>
@@ -14109,7 +14109,7 @@
       </c>
       <c r="B1140" t="inlineStr">
         <is>
-          <t>67-272</t>
+          <t>15-121</t>
         </is>
       </c>
     </row>
@@ -14121,7 +14121,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>76-108</t>
+          <t>76-106</t>
         </is>
       </c>
     </row>
@@ -14133,7 +14133,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>76-106</t>
+          <t>76-102</t>
         </is>
       </c>
     </row>
@@ -14145,7 +14145,7 @@
       </c>
       <c r="B1143" t="inlineStr">
         <is>
-          <t>76-102</t>
+          <t>76-107</t>
         </is>
       </c>
     </row>
@@ -14169,7 +14169,7 @@
       </c>
       <c r="B1145" t="inlineStr">
         <is>
-          <t>76-107</t>
+          <t>76-108</t>
         </is>
       </c>
     </row>
@@ -14181,7 +14181,7 @@
       </c>
       <c r="B1146" t="inlineStr">
         <is>
-          <t>21-259</t>
+          <t>21-268</t>
         </is>
       </c>
     </row>
@@ -14193,7 +14193,7 @@
       </c>
       <c r="B1147" t="inlineStr">
         <is>
-          <t>21-269</t>
+          <t>36-208</t>
         </is>
       </c>
     </row>
@@ -14205,7 +14205,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>70-208</t>
+          <t>36-202</t>
         </is>
       </c>
     </row>
@@ -14217,7 +14217,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>36-309</t>
+          <t>21-259</t>
         </is>
       </c>
     </row>
@@ -14229,7 +14229,7 @@
       </c>
       <c r="B1150" t="inlineStr">
         <is>
-          <t>36-202</t>
+          <t>70-208</t>
         </is>
       </c>
     </row>
@@ -14241,7 +14241,7 @@
       </c>
       <c r="B1151" t="inlineStr">
         <is>
-          <t>36-208</t>
+          <t>21-269</t>
         </is>
       </c>
     </row>
@@ -14253,7 +14253,7 @@
       </c>
       <c r="B1152" t="inlineStr">
         <is>
-          <t>21-256</t>
+          <t>36-309</t>
         </is>
       </c>
     </row>
@@ -14265,7 +14265,7 @@
       </c>
       <c r="B1153" t="inlineStr">
         <is>
-          <t>21-268</t>
+          <t>21-256</t>
         </is>
       </c>
     </row>
